--- a/utils/recordingExcel/ZYY/ZYY_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/ZYY/ZYY_RNP_TBOffset_Recording.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82662DE-3CF6-4174-A25B-2F1BB5E041AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD66EB1B-EB0C-4B10-AD96-22F233019B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="2652" windowWidth="27120" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="1676">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -4963,6 +4963,371 @@
   <si>
     <t>M:\neuropixels\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffct1ZYY20241112\Block-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-1</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker: 6.3,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-2</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>3.7, 5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-3</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-4</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-5</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>4, 5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording6\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-9</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-10</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>4.3 ,5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-11</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-12</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-13</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-14</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>4.5, 5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-15</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-16</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-17</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment5\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment5\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>4.1,5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-1</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker:9.1, 0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, 8.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-2</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>2.9, 7.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-3</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-4</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-5</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>12.3, 8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-6</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>3.2, 7.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-7</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-8</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-9</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>11.7,8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-10</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>2.6,7.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-11</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-12</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-13</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>12,9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-14</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>2.9,8.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染色</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-15</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-16</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-1</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker：0.4，7.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8，12.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-2</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>3.4，5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-3</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-4</t>
+  </si>
+  <si>
+    <t>RNP_LocalGlobal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-5</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:43冷冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-8</t>
+  </si>
+  <si>
+    <t>Freeze_RNP_MMN_ICI4_250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-9</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-10</t>
+  </si>
+  <si>
+    <t>Freeze_RNP_LocalGlobal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-11</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
 </sst>
 </file>
@@ -5514,10 +5879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE7F-73A6-48FB-BA45-796FFEBC3683}">
-  <dimension ref="A1:U662"/>
+  <dimension ref="A1:U706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="D656" sqref="D656"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="A697" sqref="A697:XFD706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29658,7 +30023,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="657" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B657" s="56" t="s">
         <v>1547</v>
       </c>
@@ -29669,7 +30034,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="658" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B658" s="24" t="s">
         <v>1548</v>
       </c>
@@ -29686,7 +30051,7 @@
       <c r="Q658" s="25"/>
       <c r="R658" s="25"/>
     </row>
-    <row r="659" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B659" s="56" t="s">
         <v>1554</v>
       </c>
@@ -29703,7 +30068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="660" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B660" s="56" t="s">
         <v>1555</v>
       </c>
@@ -29717,7 +30082,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="661" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B661" s="56" t="s">
         <v>1556</v>
       </c>
@@ -29728,7 +30093,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="662" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B662" s="24" t="s">
         <v>1557</v>
       </c>
@@ -29737,6 +30102,730 @@
       </c>
       <c r="D662" t="s">
         <v>1562</v>
+      </c>
+    </row>
+    <row r="663" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B663" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C663" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G663" t="s">
+        <v>115</v>
+      </c>
+      <c r="H663">
+        <v>7700</v>
+      </c>
+      <c r="S663" t="s">
+        <v>1566</v>
+      </c>
+      <c r="T663" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="664" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B664" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C664" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1569</v>
+      </c>
+      <c r="S664" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="665" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C665" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="666" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B666" s="24" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C666" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D666" s="24" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E666" s="26"/>
+      <c r="F666" s="26"/>
+      <c r="N666" s="28"/>
+      <c r="O666" s="25"/>
+      <c r="Q666" s="25"/>
+      <c r="R666" s="25"/>
+    </row>
+    <row r="667" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B667" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C667" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G667" t="s">
+        <v>286</v>
+      </c>
+      <c r="H667">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="668" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B668" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C668" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H668">
+        <v>7500</v>
+      </c>
+      <c r="S668" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="669" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C669" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="670" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B670" s="24" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C670" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D670" s="24" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E670" s="26"/>
+      <c r="F670" s="26"/>
+      <c r="N670" s="28"/>
+      <c r="O670" s="25"/>
+      <c r="Q670" s="25"/>
+      <c r="R670" s="25"/>
+    </row>
+    <row r="671" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B671" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C671" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G671" t="s">
+        <v>300</v>
+      </c>
+      <c r="H671">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="672" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B672" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C672" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H672">
+        <v>8800</v>
+      </c>
+      <c r="S672" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="673" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B673" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C673" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="674" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B674" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C674" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D674" s="24" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E674" s="26"/>
+      <c r="F674" s="26"/>
+      <c r="N674" s="28"/>
+      <c r="O674" s="25"/>
+      <c r="Q674" s="25"/>
+      <c r="R674" s="25"/>
+    </row>
+    <row r="675" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B675" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C675" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G675" t="s">
+        <v>314</v>
+      </c>
+      <c r="H675">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="676" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B676" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C676" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H676">
+        <v>7600</v>
+      </c>
+      <c r="S676" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="677" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B677" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C677" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="678" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B678" s="24" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C678" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D678" s="24" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E678" s="26"/>
+      <c r="F678" s="26"/>
+      <c r="N678" s="28"/>
+      <c r="O678" s="25"/>
+      <c r="Q678" s="25"/>
+      <c r="R678" s="25"/>
+    </row>
+    <row r="679" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B679" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C679" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G679" t="s">
+        <v>865</v>
+      </c>
+      <c r="H679">
+        <v>8000</v>
+      </c>
+      <c r="T679" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="680" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B680" s="24" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C680" s="38" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D680" s="24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E680" s="26"/>
+      <c r="F680" s="26"/>
+      <c r="H680" s="24">
+        <v>8000</v>
+      </c>
+      <c r="N680" s="28"/>
+      <c r="O680" s="25"/>
+      <c r="Q680" s="25"/>
+      <c r="R680" s="25"/>
+      <c r="S680" s="24" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="681" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B681" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C681" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G681" t="s">
+        <v>95</v>
+      </c>
+      <c r="H681" s="52">
+        <v>7700</v>
+      </c>
+      <c r="S681" t="s">
+        <v>1609</v>
+      </c>
+      <c r="T681" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="682" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B682" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C682" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G682" t="s">
+        <v>95</v>
+      </c>
+      <c r="H682" s="52">
+        <v>7700</v>
+      </c>
+      <c r="S682" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="683" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B683" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C683" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H683" s="52">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="684" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B684" s="24" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C684" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D684" s="24" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E684" s="26"/>
+      <c r="F684" s="26"/>
+      <c r="N684" s="28"/>
+      <c r="O684" s="25"/>
+      <c r="Q684" s="25"/>
+      <c r="R684" s="25"/>
+    </row>
+    <row r="685" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B685" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C685" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G685" t="s">
+        <v>464</v>
+      </c>
+      <c r="H685" s="52">
+        <v>7450</v>
+      </c>
+      <c r="T685" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="686" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B686" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C686" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1622</v>
+      </c>
+      <c r="S686" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="687" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B687" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C687" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="688" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B688" s="24" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C688" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D688" s="24" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E688" s="26"/>
+      <c r="F688" s="26"/>
+      <c r="N688" s="28"/>
+      <c r="O688" s="25"/>
+      <c r="Q688" s="25"/>
+      <c r="R688" s="25"/>
+    </row>
+    <row r="689" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B689" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C689" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G689" t="s">
+        <v>466</v>
+      </c>
+      <c r="H689">
+        <v>7000</v>
+      </c>
+      <c r="T689" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="690" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B690" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C690" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H690">
+        <v>7000</v>
+      </c>
+      <c r="S690" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="691" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B691" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C691" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="692" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B692" s="24" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C692" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D692" s="24" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E692" s="26"/>
+      <c r="F692" s="26"/>
+      <c r="N692" s="28"/>
+      <c r="O692" s="25"/>
+      <c r="Q692" s="25"/>
+      <c r="R692" s="25"/>
+    </row>
+    <row r="693" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B693" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C693" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G693" t="s">
+        <v>468</v>
+      </c>
+      <c r="H693">
+        <v>7300</v>
+      </c>
+      <c r="T693" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="694" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B694" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C694" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H694">
+        <v>7300</v>
+      </c>
+      <c r="S694" t="s">
+        <v>1643</v>
+      </c>
+      <c r="T694" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="695" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B695" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C695" s="67" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="696" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B696" s="24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C696" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D696" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E696" s="26"/>
+      <c r="F696" s="26"/>
+      <c r="N696" s="28"/>
+      <c r="O696" s="25"/>
+      <c r="Q696" s="25"/>
+      <c r="R696" s="25"/>
+    </row>
+    <row r="697" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B697" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C697" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H697">
+        <v>7800</v>
+      </c>
+      <c r="S697" t="s">
+        <v>1651</v>
+      </c>
+      <c r="T697" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="698" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B698" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C698" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H698">
+        <v>7800</v>
+      </c>
+      <c r="S698" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="699" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B699" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C699" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="700" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B700" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C700" s="54" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="701" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="24" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C701" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D701" s="24" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E701" s="26"/>
+      <c r="F701" s="26"/>
+      <c r="N701" s="28"/>
+      <c r="O701" s="25"/>
+      <c r="Q701" s="25"/>
+      <c r="R701" s="25"/>
+    </row>
+    <row r="702" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B702" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C702" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1664</v>
+      </c>
+      <c r="S702" s="65">
+        <v>0.83194444444444449</v>
+      </c>
+      <c r="T702" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="703" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B703" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C703" s="54" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1668</v>
+      </c>
+      <c r="S703" s="65">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="T703">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="704" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B704" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C704" s="54" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1670</v>
+      </c>
+      <c r="S704" s="65">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="T704">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="705" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B705" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C705" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S705" s="65">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="T705">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="706" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B706" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C706" s="54" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1675</v>
+      </c>
+      <c r="S706" s="65">
+        <v>0.88611111111111107</v>
+      </c>
+      <c r="T706">
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/utils/recordingExcel/ZYY/ZYY_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/ZYY/ZYY_RNP_TBOffset_Recording.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD66EB1B-EB0C-4B10-AD96-22F233019B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E599AE-91F0-4BBF-8617-64A9C055330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="2652" windowWidth="27120" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="2940" windowWidth="27120" windowHeight="11385" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全部" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5316" uniqueCount="1705">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -4781,6 +4781,10 @@
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241112\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffct1ZYY20241112\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffct1ZYY20241112\Block-2</t>
   </si>
   <si>
@@ -4961,130 +4965,130 @@
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241112\Record Node 109\experiment6\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\neuropixels\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffct1ZYY20241112\Block-1</t>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-1</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-2</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-3</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-4</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-5</t>
+  </si>
+  <si>
+    <t>10, 4.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-1</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <t>3.7, 5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>marker: 6.3,-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10, 4.3</t>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-2</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>3.7, 5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-3</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-4</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-5</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-9</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording6\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>4, 5.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment2\recording6\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-9</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-10</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>4.3 ,5.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-10</t>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-11</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-12</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-13</t>
+  </si>
+  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-12</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-13</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-14</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>4.5, 5.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment3\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>4.1,5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-14</t>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-15</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-16</t>
+  </si>
+  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-16</t>
-  </si>
-  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment4\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
@@ -5092,25 +5096,15 @@
   </si>
   <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment5\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment5\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241114\Block-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241114\Record Node 109\experiment5\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>4.1,5.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-1</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>marker:9.1, 0.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5119,108 +5113,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-2</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>2.9, 7.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-1</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-2</t>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-3</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-4</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-4</t>
-  </si>
-  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-5</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>12.3, 8.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-6</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>3.2, 7.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-5</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-6</t>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-7</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-8</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-8</t>
-  </si>
-  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment2\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-9</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>11.7,8.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-10</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>2.6,7.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-9</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-10</t>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-11</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-12</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-12</t>
-  </si>
-  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115\Record Node 109\experiment3\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-13</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>12,9.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-14</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>2.9,8.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5228,22 +5216,34 @@
     <t>染色</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-13</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-14</t>
+  </si>
+  <si>
     <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-15</t>
   </si>
   <si>
+    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-16</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
-    <t>M:\ZYY\TDTTank\RatNPSEeffect1_ZYY\RatNPSEeffect1ZYY20241115\Block-16</t>
-  </si>
-  <si>
     <t>D:\DATA\OpenEphys\RatNPSEeffect1ZYY_20241115 (1)\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-1</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
     <t>marker：0.4，7.3</t>
@@ -5254,23 +5254,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-2</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
     <t>3.4，5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-2</t>
+  </si>
+  <si>
+    <t>Freeze_RNP_MMN_ICI4_250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeze_RNP_LocalGlobal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-3</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-4</t>
   </si>
   <si>
     <t>RNP_LocalGlobal</t>
@@ -5280,10 +5285,17 @@
     <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
   </si>
   <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-4</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
     <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-5</t>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <t>19:43冷冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-7</t>
@@ -5294,40 +5306,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:43冷冻</t>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-8</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-9</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-10</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-11</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>marker: 7.2, 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-8</t>
-  </si>
-  <si>
-    <t>Freeze_RNP_MMN_ICI4_250</t>
+    <t>10.4, 9.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-9</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-10</t>
-  </si>
-  <si>
-    <t>Freeze_RNP_LocalGlobal</t>
+    <t>3.2,5.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA-AP</t>
-  </si>
-  <si>
-    <t>M:\ZYY\RatMMNFz1ZYY20241122\Block-11</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1ZYY_20241122\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-2</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-3</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-4</t>
+  </si>
+  <si>
+    <t>RNP_MMNdxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-5</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-6</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:44冷冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-7</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-8</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-9</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording13\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-10</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording14\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>D:\DATA\OpenEphys\RatMMNFz2ZYY_20241202\Record Node 109\experiment1\recording15\continuous\Neuropix-PXI-108.ProbeA-AP</t>
+  </si>
+  <si>
+    <t>M:\ZYY\TDTTank\RatMMNFz2ZYY20241202\Block-11</t>
   </si>
 </sst>
 </file>
@@ -5879,36 +5975,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE7F-73A6-48FB-BA45-796FFEBC3683}">
-  <dimension ref="A1:U706"/>
+  <dimension ref="A1:U717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
-      <selection activeCell="A697" sqref="A697:XFD706"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="T716" sqref="T716"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="63.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="64.75" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="115" customWidth="1"/>
-    <col min="5" max="6" width="6.88671875" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="6.875" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="6.875" customWidth="1"/>
+    <col min="9" max="9" width="6.875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.625" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="25.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.625" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5967,7 +6063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6026,7 +6122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -6071,7 +6167,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6116,7 +6212,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6161,7 +6257,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -6206,7 +6302,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -6251,7 +6347,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>1</v>
       </c>
@@ -6296,7 +6392,7 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -6341,7 +6437,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -6386,7 +6482,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -6431,7 +6527,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -6476,7 +6572,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -6521,7 +6617,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>1</v>
       </c>
@@ -6566,7 +6662,7 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -6611,7 +6707,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>2</v>
       </c>
@@ -6652,7 +6748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>2</v>
       </c>
@@ -6693,7 +6789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>2</v>
       </c>
@@ -6734,7 +6830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>2</v>
       </c>
@@ -6775,7 +6871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="36">
         <v>2</v>
       </c>
@@ -6816,7 +6912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>2</v>
       </c>
@@ -6857,7 +6953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>2</v>
       </c>
@@ -6898,7 +6994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>2</v>
       </c>
@@ -6939,7 +7035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>2</v>
       </c>
@@ -6980,7 +7076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>2</v>
       </c>
@@ -7021,7 +7117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>2</v>
       </c>
@@ -7066,7 +7162,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>3</v>
       </c>
@@ -7110,7 +7206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>3</v>
       </c>
@@ -7151,7 +7247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>3</v>
       </c>
@@ -7192,7 +7288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>3</v>
       </c>
@@ -7236,7 +7332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="39">
         <v>3</v>
       </c>
@@ -7277,7 +7373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <v>3</v>
       </c>
@@ -7318,7 +7414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>3</v>
       </c>
@@ -7359,7 +7455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>3</v>
       </c>
@@ -7400,7 +7496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>3</v>
       </c>
@@ -7445,7 +7541,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>4</v>
       </c>
@@ -7489,7 +7585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <v>4</v>
       </c>
@@ -7530,7 +7626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -7574,7 +7670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <v>4</v>
       </c>
@@ -7615,7 +7711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="39">
         <v>4</v>
       </c>
@@ -7659,7 +7755,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <v>4</v>
       </c>
@@ -7700,7 +7796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44">
         <v>4</v>
       </c>
@@ -7745,7 +7841,7 @@
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
     </row>
-    <row r="43" spans="1:21" s="48" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>4</v>
       </c>
@@ -7790,7 +7886,7 @@
       <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="41">
         <v>10</v>
       </c>
@@ -7831,7 +7927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="41">
         <v>10</v>
       </c>
@@ -7872,7 +7968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="44">
         <v>10</v>
       </c>
@@ -7919,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="44">
         <v>10</v>
       </c>
@@ -7960,7 +8056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="44">
         <v>11</v>
       </c>
@@ -8001,7 +8097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <v>11</v>
       </c>
@@ -8042,7 +8138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="44">
         <v>11</v>
       </c>
@@ -8083,7 +8179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="44">
         <v>11</v>
       </c>
@@ -8124,7 +8220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="44">
         <v>12</v>
       </c>
@@ -8165,7 +8261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="44">
         <v>12</v>
       </c>
@@ -8206,7 +8302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="44">
         <v>12</v>
       </c>
@@ -8247,7 +8343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="44">
         <v>12</v>
       </c>
@@ -8288,7 +8384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="44">
         <v>12</v>
       </c>
@@ -8329,7 +8425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="44">
         <v>12</v>
       </c>
@@ -8370,7 +8466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>12</v>
       </c>
@@ -8415,7 +8511,7 @@
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="44">
         <v>13</v>
       </c>
@@ -8456,7 +8552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="44">
         <v>13</v>
       </c>
@@ -8497,7 +8593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="44">
         <v>13</v>
       </c>
@@ -8544,7 +8640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="44">
         <v>13</v>
       </c>
@@ -8585,7 +8681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="44">
         <v>14</v>
       </c>
@@ -8626,7 +8722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="44">
         <v>14</v>
       </c>
@@ -8667,7 +8763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="44">
         <v>14</v>
       </c>
@@ -8708,7 +8804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="44">
         <v>14</v>
       </c>
@@ -8749,7 +8845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="44">
         <v>15</v>
       </c>
@@ -8790,7 +8886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="44">
         <v>15</v>
       </c>
@@ -8831,7 +8927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="44">
         <v>15</v>
       </c>
@@ -8872,7 +8968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="44">
         <v>15</v>
       </c>
@@ -8913,7 +9009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24">
         <v>15</v>
       </c>
@@ -8958,7 +9054,7 @@
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="44">
         <v>16</v>
       </c>
@@ -8999,7 +9095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="44">
         <v>16</v>
       </c>
@@ -9040,7 +9136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="44">
         <v>16</v>
       </c>
@@ -9090,7 +9186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="44">
         <v>16</v>
       </c>
@@ -9131,7 +9227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="44">
         <v>17</v>
       </c>
@@ -9172,7 +9268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="44">
         <v>17</v>
       </c>
@@ -9213,7 +9309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="44">
         <v>17</v>
       </c>
@@ -9254,7 +9350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="44">
         <v>17</v>
       </c>
@@ -9295,7 +9391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="44">
         <v>18</v>
       </c>
@@ -9336,7 +9432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="44">
         <v>18</v>
       </c>
@@ -9377,7 +9473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="44">
         <v>18</v>
       </c>
@@ -9418,7 +9514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="44">
         <v>18</v>
       </c>
@@ -9459,7 +9555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>18</v>
       </c>
@@ -9504,7 +9600,7 @@
       <c r="Q84" s="25"/>
       <c r="R84" s="25"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="44">
         <v>19</v>
       </c>
@@ -9545,7 +9641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="44">
         <v>19</v>
       </c>
@@ -9586,7 +9682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="44">
         <v>19</v>
       </c>
@@ -9633,7 +9729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="44">
         <v>19</v>
       </c>
@@ -9674,7 +9770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="44">
         <v>20</v>
       </c>
@@ -9715,7 +9811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="44">
         <v>20</v>
       </c>
@@ -9756,7 +9852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="44">
         <v>20</v>
       </c>
@@ -9797,7 +9893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="44">
         <v>20</v>
       </c>
@@ -9838,7 +9934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="44">
         <v>21</v>
       </c>
@@ -9879,7 +9975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="44">
         <v>21</v>
       </c>
@@ -9920,7 +10016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="44">
         <v>21</v>
       </c>
@@ -9961,7 +10057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="44">
         <v>21</v>
       </c>
@@ -10002,7 +10098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="42">
         <v>21</v>
       </c>
@@ -10047,7 +10143,7 @@
       <c r="Q97" s="45"/>
       <c r="R97" s="45"/>
     </row>
-    <row r="98" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <v>22</v>
       </c>
@@ -10092,7 +10188,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="44">
         <v>22</v>
       </c>
@@ -10133,7 +10229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="44">
         <v>22</v>
       </c>
@@ -10174,7 +10270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="44">
         <v>23</v>
       </c>
@@ -10215,7 +10311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="44">
         <v>23</v>
       </c>
@@ -10256,7 +10352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="44">
         <v>23</v>
       </c>
@@ -10297,7 +10393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="44">
         <v>24</v>
       </c>
@@ -10338,7 +10434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="44">
         <v>24</v>
       </c>
@@ -10379,7 +10475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="44">
         <v>24</v>
       </c>
@@ -10420,7 +10516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="42">
         <v>24</v>
       </c>
@@ -10465,7 +10561,7 @@
       <c r="Q107" s="45"/>
       <c r="R107" s="45"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="44">
         <v>24</v>
       </c>
@@ -10506,7 +10602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>24</v>
       </c>
@@ -10551,7 +10647,7 @@
       <c r="Q109" s="25"/>
       <c r="R109" s="25"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="44">
         <v>25</v>
       </c>
@@ -10592,7 +10688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="44">
         <v>25</v>
       </c>
@@ -10633,7 +10729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="44">
         <v>25</v>
       </c>
@@ -10674,7 +10770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="44">
         <v>26</v>
       </c>
@@ -10715,7 +10811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="44">
         <v>26</v>
       </c>
@@ -10756,7 +10852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="44">
         <v>26</v>
       </c>
@@ -10797,7 +10893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="44">
         <v>27</v>
       </c>
@@ -10838,7 +10934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="44">
         <v>27</v>
       </c>
@@ -10879,7 +10975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="44">
         <v>27</v>
       </c>
@@ -10920,7 +11016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="44">
         <v>27</v>
       </c>
@@ -10961,7 +11057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="44">
         <v>27</v>
       </c>
@@ -11002,7 +11098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>27</v>
       </c>
@@ -11047,7 +11143,7 @@
       <c r="Q121" s="25"/>
       <c r="R121" s="25"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="44">
         <v>28</v>
       </c>
@@ -11088,7 +11184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="44">
         <v>28</v>
       </c>
@@ -11129,7 +11225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="44">
         <v>28</v>
       </c>
@@ -11170,7 +11266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="44">
         <v>29</v>
       </c>
@@ -11211,7 +11307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="44">
         <v>29</v>
       </c>
@@ -11252,7 +11348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="44">
         <v>29</v>
       </c>
@@ -11293,7 +11389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="44">
         <v>30</v>
       </c>
@@ -11334,7 +11430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="44">
         <v>30</v>
       </c>
@@ -11375,7 +11471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="44">
         <v>30</v>
       </c>
@@ -11416,7 +11512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="44">
         <v>30</v>
       </c>
@@ -11457,7 +11553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="44">
         <v>30</v>
       </c>
@@ -11498,7 +11594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
         <v>30</v>
       </c>
@@ -11543,7 +11639,7 @@
       <c r="Q133" s="25"/>
       <c r="R133" s="25"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="44">
         <v>31</v>
       </c>
@@ -11584,7 +11680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="44">
         <v>31</v>
       </c>
@@ -11625,7 +11721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="44">
         <v>31</v>
       </c>
@@ -11666,7 +11762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="44">
         <v>32</v>
       </c>
@@ -11707,7 +11803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="44">
         <v>32</v>
       </c>
@@ -11748,7 +11844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="44">
         <v>32</v>
       </c>
@@ -11789,7 +11885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="44">
         <v>33</v>
       </c>
@@ -11830,7 +11926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="44">
         <v>33</v>
       </c>
@@ -11871,7 +11967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="44">
         <v>33</v>
       </c>
@@ -11912,7 +12008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="44">
         <v>33</v>
       </c>
@@ -11953,7 +12049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="44">
         <v>33</v>
       </c>
@@ -11994,7 +12090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24">
         <v>33</v>
       </c>
@@ -12039,7 +12135,7 @@
       <c r="Q145" s="25"/>
       <c r="R145" s="25"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="44">
         <v>34</v>
       </c>
@@ -12083,7 +12179,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="44">
         <v>34</v>
       </c>
@@ -12124,7 +12220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="44">
         <v>34</v>
       </c>
@@ -12165,7 +12261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="44">
         <v>35</v>
       </c>
@@ -12206,7 +12302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="44">
         <v>35</v>
       </c>
@@ -12247,7 +12343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="44">
         <v>35</v>
       </c>
@@ -12288,7 +12384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="44">
         <v>36</v>
       </c>
@@ -12329,7 +12425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="44">
         <v>36</v>
       </c>
@@ -12370,7 +12466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="44">
         <v>36</v>
       </c>
@@ -12411,7 +12507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="44">
         <v>36</v>
       </c>
@@ -12452,7 +12548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="44">
         <v>36</v>
       </c>
@@ -12493,7 +12589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27">
         <v>36</v>
       </c>
@@ -12538,7 +12634,7 @@
       <c r="Q157" s="25"/>
       <c r="R157" s="25"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="44">
         <v>37</v>
       </c>
@@ -12579,7 +12675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="44">
         <v>37</v>
       </c>
@@ -12620,7 +12716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="44">
         <v>37</v>
       </c>
@@ -12661,7 +12757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="44">
         <v>38</v>
       </c>
@@ -12702,7 +12798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="44">
         <v>38</v>
       </c>
@@ -12743,7 +12839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="44">
         <v>38</v>
       </c>
@@ -12784,7 +12880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="44">
         <v>39</v>
       </c>
@@ -12825,7 +12921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="44">
         <v>39</v>
       </c>
@@ -12866,7 +12962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="44">
         <v>39</v>
       </c>
@@ -12907,7 +13003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="44">
         <v>39</v>
       </c>
@@ -12948,7 +13044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="44">
         <v>39</v>
       </c>
@@ -12989,7 +13085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27">
         <v>39</v>
       </c>
@@ -13034,7 +13130,7 @@
       <c r="Q169" s="25"/>
       <c r="R169" s="25"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="44">
         <v>40</v>
       </c>
@@ -13078,7 +13174,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="44">
         <v>40</v>
       </c>
@@ -13119,7 +13215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="44">
         <v>40</v>
       </c>
@@ -13160,7 +13256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="44">
         <v>41</v>
       </c>
@@ -13201,7 +13297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="44">
         <v>41</v>
       </c>
@@ -13242,7 +13338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="44">
         <v>41</v>
       </c>
@@ -13283,7 +13379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="44">
         <v>42</v>
       </c>
@@ -13324,7 +13420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="44">
         <v>42</v>
       </c>
@@ -13365,7 +13461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="44">
         <v>42</v>
       </c>
@@ -13406,7 +13502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="44">
         <v>42</v>
       </c>
@@ -13447,7 +13543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="44">
         <v>42</v>
       </c>
@@ -13488,7 +13584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27">
         <v>42</v>
       </c>
@@ -13533,7 +13629,7 @@
       <c r="Q181" s="25"/>
       <c r="R181" s="25"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="44">
         <v>43</v>
       </c>
@@ -13574,7 +13670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="44">
         <v>43</v>
       </c>
@@ -13615,7 +13711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="44">
         <v>43</v>
       </c>
@@ -13656,7 +13752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="44">
         <v>44</v>
       </c>
@@ -13697,7 +13793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="44">
         <v>44</v>
       </c>
@@ -13738,7 +13834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="44">
         <v>44</v>
       </c>
@@ -13779,7 +13875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="44">
         <v>45</v>
       </c>
@@ -13820,7 +13916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="44">
         <v>45</v>
       </c>
@@ -13861,7 +13957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="44">
         <v>45</v>
       </c>
@@ -13902,7 +13998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="44">
         <v>45</v>
       </c>
@@ -13943,7 +14039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="44">
         <v>45</v>
       </c>
@@ -13984,7 +14080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27">
         <v>45</v>
       </c>
@@ -14029,7 +14125,7 @@
       <c r="Q193" s="25"/>
       <c r="R193" s="25"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="52"/>
       <c r="B194" t="s">
         <v>469</v>
@@ -14074,7 +14170,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>472</v>
       </c>
@@ -14118,7 +14214,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>476</v>
       </c>
@@ -14159,7 +14255,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>477</v>
       </c>
@@ -14197,7 +14293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>479</v>
       </c>
@@ -14235,7 +14331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>480</v>
       </c>
@@ -14273,7 +14369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>483</v>
       </c>
@@ -14311,7 +14407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>484</v>
       </c>
@@ -14349,7 +14445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>485</v>
       </c>
@@ -14387,7 +14483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>486</v>
       </c>
@@ -14425,7 +14521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>491</v>
       </c>
@@ -14463,7 +14559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>492</v>
       </c>
@@ -14501,7 +14597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="24" t="s">
         <v>493</v>
       </c>
@@ -14543,7 +14639,7 @@
       <c r="Q206" s="25"/>
       <c r="R206" s="25"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>500</v>
       </c>
@@ -14584,7 +14680,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>501</v>
       </c>
@@ -14622,7 +14718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>504</v>
       </c>
@@ -14663,7 +14759,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>505</v>
       </c>
@@ -14701,7 +14797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>508</v>
       </c>
@@ -14739,7 +14835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>510</v>
       </c>
@@ -14777,7 +14873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>512</v>
       </c>
@@ -14815,7 +14911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>513</v>
       </c>
@@ -14853,7 +14949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>516</v>
       </c>
@@ -14891,7 +14987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>517</v>
       </c>
@@ -14929,7 +15025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>518</v>
       </c>
@@ -14967,7 +15063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>519</v>
       </c>
@@ -15005,7 +15101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="24" t="s">
         <v>520</v>
       </c>
@@ -15047,7 +15143,7 @@
       <c r="Q219" s="25"/>
       <c r="R219" s="25"/>
     </row>
-    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>527</v>
       </c>
@@ -15091,7 +15187,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="221" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>530</v>
       </c>
@@ -15129,7 +15225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>531</v>
       </c>
@@ -15167,7 +15263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>532</v>
       </c>
@@ -15208,7 +15304,7 @@
         <v>15974</v>
       </c>
     </row>
-    <row r="224" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>535</v>
       </c>
@@ -15246,7 +15342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>537</v>
       </c>
@@ -15284,7 +15380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>539</v>
       </c>
@@ -15322,7 +15418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>541</v>
       </c>
@@ -15360,7 +15456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>543</v>
       </c>
@@ -15398,7 +15494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>544</v>
       </c>
@@ -15436,7 +15532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>547</v>
       </c>
@@ -15474,7 +15570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>549</v>
       </c>
@@ -15512,7 +15608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="24" t="s">
         <v>550</v>
       </c>
@@ -15554,7 +15650,7 @@
       <c r="Q232" s="25"/>
       <c r="R232" s="25"/>
     </row>
-    <row r="233" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>554</v>
       </c>
@@ -15595,7 +15691,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="234" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>555</v>
       </c>
@@ -15633,7 +15729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>558</v>
       </c>
@@ -15674,7 +15770,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="236" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>557</v>
       </c>
@@ -15712,7 +15808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>564</v>
       </c>
@@ -15750,7 +15846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>562</v>
       </c>
@@ -15788,7 +15884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>567</v>
       </c>
@@ -15829,7 +15925,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="240" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>565</v>
       </c>
@@ -15870,7 +15966,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>571</v>
       </c>
@@ -15908,7 +16004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>573</v>
       </c>
@@ -15946,7 +16042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>575</v>
       </c>
@@ -15984,7 +16080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>576</v>
       </c>
@@ -16022,7 +16118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="24" t="s">
         <v>577</v>
       </c>
@@ -16064,7 +16160,7 @@
       <c r="Q245" s="25"/>
       <c r="R245" s="25"/>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>585</v>
       </c>
@@ -16108,7 +16204,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>586</v>
       </c>
@@ -16149,7 +16245,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>606</v>
       </c>
@@ -16190,7 +16286,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>594</v>
       </c>
@@ -16234,7 +16330,7 @@
         <v>33124</v>
       </c>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>588</v>
       </c>
@@ -16272,7 +16368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>593</v>
       </c>
@@ -16310,7 +16406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>602</v>
       </c>
@@ -16348,7 +16444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>596</v>
       </c>
@@ -16386,7 +16482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>599</v>
       </c>
@@ -16424,7 +16520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>601</v>
       </c>
@@ -16463,7 +16559,7 @@
       </c>
       <c r="N255" s="57"/>
     </row>
-    <row r="256" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="24" t="s">
         <v>604</v>
       </c>
@@ -16504,7 +16600,7 @@
       <c r="Q256" s="25"/>
       <c r="R256" s="25"/>
     </row>
-    <row r="257" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C257" s="52" t="s">
         <v>611</v>
       </c>
@@ -16545,7 +16641,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>612</v>
       </c>
@@ -16583,7 +16679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>614</v>
       </c>
@@ -16621,7 +16717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>617</v>
       </c>
@@ -16662,7 +16758,7 @@
         <v>19769</v>
       </c>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>618</v>
       </c>
@@ -16701,7 +16797,7 @@
       </c>
       <c r="N261" s="57"/>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>621</v>
       </c>
@@ -16739,7 +16835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>622</v>
       </c>
@@ -16777,7 +16873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>625</v>
       </c>
@@ -16815,7 +16911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>626</v>
       </c>
@@ -16853,7 +16949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>629</v>
       </c>
@@ -16891,7 +16987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>631</v>
       </c>
@@ -16929,7 +17025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="24" t="s">
         <v>632</v>
       </c>
@@ -16971,7 +17067,7 @@
       <c r="Q268" s="25"/>
       <c r="R268" s="25"/>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C269" s="52" t="s">
         <v>611</v>
       </c>
@@ -17009,7 +17105,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>640</v>
       </c>
@@ -17047,7 +17143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>637</v>
       </c>
@@ -17088,7 +17184,7 @@
         <v>9244</v>
       </c>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>636</v>
       </c>
@@ -17126,7 +17222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="24" t="s">
         <v>643</v>
       </c>
@@ -17168,7 +17264,7 @@
       <c r="Q273" s="25"/>
       <c r="R273" s="25"/>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C274" s="52" t="s">
         <v>611</v>
       </c>
@@ -17206,7 +17302,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>648</v>
       </c>
@@ -17244,7 +17340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>646</v>
       </c>
@@ -17282,7 +17378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>652</v>
       </c>
@@ -17320,7 +17416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>650</v>
       </c>
@@ -17358,7 +17454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>655</v>
       </c>
@@ -17396,7 +17492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>657</v>
       </c>
@@ -17434,7 +17530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>659</v>
       </c>
@@ -17472,7 +17568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>661</v>
       </c>
@@ -17510,7 +17606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>663</v>
       </c>
@@ -17548,7 +17644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>665</v>
       </c>
@@ -17586,7 +17682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>667</v>
       </c>
@@ -17624,7 +17720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="24" t="s">
         <v>669</v>
       </c>
@@ -17666,7 +17762,7 @@
       <c r="Q286" s="25"/>
       <c r="R286" s="25"/>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C287" s="52" t="s">
         <v>611</v>
       </c>
@@ -17707,7 +17803,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>678</v>
       </c>
@@ -17751,7 +17847,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="289" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>680</v>
       </c>
@@ -17789,7 +17885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>682</v>
       </c>
@@ -17827,7 +17923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>684</v>
       </c>
@@ -17865,7 +17961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>686</v>
       </c>
@@ -17903,7 +17999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>688</v>
       </c>
@@ -17941,7 +18037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>690</v>
       </c>
@@ -17979,7 +18075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>693</v>
       </c>
@@ -18017,7 +18113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>694</v>
       </c>
@@ -18055,7 +18151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="24" t="s">
         <v>698</v>
       </c>
@@ -18097,7 +18193,7 @@
       <c r="Q297" s="25"/>
       <c r="R297" s="25"/>
     </row>
-    <row r="298" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C298" s="52" t="s">
         <v>611</v>
       </c>
@@ -18135,7 +18231,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="299" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>701</v>
       </c>
@@ -18173,7 +18269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>703</v>
       </c>
@@ -18211,7 +18307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>705</v>
       </c>
@@ -18249,7 +18345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>707</v>
       </c>
@@ -18287,7 +18383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>708</v>
       </c>
@@ -18325,7 +18421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>709</v>
       </c>
@@ -18363,7 +18459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>710</v>
       </c>
@@ -18401,7 +18497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>711</v>
       </c>
@@ -18439,7 +18535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>712</v>
       </c>
@@ -18477,7 +18573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="24" t="s">
         <v>713</v>
       </c>
@@ -18519,7 +18615,7 @@
       <c r="Q308" s="25"/>
       <c r="R308" s="25"/>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C309" s="52" t="s">
         <v>611</v>
       </c>
@@ -18560,7 +18656,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>725</v>
       </c>
@@ -18598,7 +18694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>727</v>
       </c>
@@ -18636,7 +18732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>729</v>
       </c>
@@ -18674,7 +18770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>731</v>
       </c>
@@ -18712,7 +18808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>733</v>
       </c>
@@ -18750,7 +18846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>735</v>
       </c>
@@ -18788,7 +18884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>738</v>
       </c>
@@ -18826,7 +18922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>739</v>
       </c>
@@ -18864,7 +18960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>741</v>
       </c>
@@ -18902,7 +18998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="24" t="s">
         <v>742</v>
       </c>
@@ -18944,7 +19040,7 @@
       <c r="Q319" s="25"/>
       <c r="R319" s="25"/>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C320" s="52" t="s">
         <v>611</v>
       </c>
@@ -18982,7 +19078,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>746</v>
       </c>
@@ -19023,7 +19119,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>747</v>
       </c>
@@ -19061,7 +19157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>751</v>
       </c>
@@ -19099,7 +19195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>753</v>
       </c>
@@ -19137,7 +19233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>756</v>
       </c>
@@ -19175,7 +19271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>757</v>
       </c>
@@ -19213,7 +19309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>759</v>
       </c>
@@ -19251,7 +19347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>760</v>
       </c>
@@ -19289,7 +19385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>762</v>
       </c>
@@ -19327,7 +19423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="24" t="s">
         <v>763</v>
       </c>
@@ -19372,7 +19468,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C331" s="52" t="s">
         <v>611</v>
       </c>
@@ -19413,7 +19509,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>770</v>
       </c>
@@ -19454,7 +19550,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>773</v>
       </c>
@@ -19495,7 +19591,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>774</v>
       </c>
@@ -19533,7 +19629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>777</v>
       </c>
@@ -19571,7 +19667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>779</v>
       </c>
@@ -19609,7 +19705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>780</v>
       </c>
@@ -19647,7 +19743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>782</v>
       </c>
@@ -19685,7 +19781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>785</v>
       </c>
@@ -19723,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>787</v>
       </c>
@@ -19761,7 +19857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="24" t="s">
         <v>789</v>
       </c>
@@ -19803,7 +19899,7 @@
       <c r="Q341" s="25"/>
       <c r="R341" s="25"/>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C342" s="52" t="s">
         <v>611</v>
       </c>
@@ -19841,7 +19937,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>795</v>
       </c>
@@ -19882,7 +19978,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>796</v>
       </c>
@@ -19920,7 +20016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>798</v>
       </c>
@@ -19958,7 +20054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>800</v>
       </c>
@@ -19996,7 +20092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>801</v>
       </c>
@@ -20034,7 +20130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>805</v>
       </c>
@@ -20072,7 +20168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>806</v>
       </c>
@@ -20110,7 +20206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>808</v>
       </c>
@@ -20148,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>811</v>
       </c>
@@ -20186,7 +20282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="24" t="s">
         <v>812</v>
       </c>
@@ -20228,7 +20324,7 @@
       <c r="Q352" s="25"/>
       <c r="R352" s="25"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C353" s="52" t="s">
         <v>611</v>
       </c>
@@ -20266,7 +20362,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>818</v>
       </c>
@@ -20307,7 +20403,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>822</v>
       </c>
@@ -20348,7 +20444,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>823</v>
       </c>
@@ -20386,7 +20482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>824</v>
       </c>
@@ -20424,7 +20520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>826</v>
       </c>
@@ -20462,7 +20558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>828</v>
       </c>
@@ -20500,7 +20596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>831</v>
       </c>
@@ -20538,7 +20634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>832</v>
       </c>
@@ -20576,7 +20672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>834</v>
       </c>
@@ -20614,7 +20710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="24" t="s">
         <v>836</v>
       </c>
@@ -20656,7 +20752,7 @@
       <c r="Q363" s="25"/>
       <c r="R363" s="25"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C364" s="52" t="s">
         <v>611</v>
       </c>
@@ -20691,7 +20787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>843</v>
       </c>
@@ -20735,7 +20831,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>844</v>
       </c>
@@ -20773,7 +20869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>846</v>
       </c>
@@ -20811,7 +20907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>848</v>
       </c>
@@ -20849,7 +20945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>849</v>
       </c>
@@ -20887,7 +20983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>851</v>
       </c>
@@ -20925,7 +21021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>853</v>
       </c>
@@ -20963,7 +21059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>854</v>
       </c>
@@ -21001,7 +21097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>856</v>
       </c>
@@ -21039,7 +21135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="24" t="s">
         <v>857</v>
       </c>
@@ -21081,7 +21177,7 @@
       <c r="Q374" s="25"/>
       <c r="R374" s="25"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C375" s="52" t="s">
         <v>611</v>
       </c>
@@ -21122,7 +21218,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>870</v>
       </c>
@@ -21160,7 +21256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>871</v>
       </c>
@@ -21201,7 +21297,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>872</v>
       </c>
@@ -21242,7 +21338,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>875</v>
       </c>
@@ -21280,7 +21376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>877</v>
       </c>
@@ -21318,7 +21414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>878</v>
       </c>
@@ -21356,7 +21452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>880</v>
       </c>
@@ -21394,7 +21490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>883</v>
       </c>
@@ -21432,7 +21528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>885</v>
       </c>
@@ -21470,7 +21566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="24" t="s">
         <v>886</v>
       </c>
@@ -21512,7 +21608,7 @@
       <c r="Q385" s="25"/>
       <c r="R385" s="25"/>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C386" s="52" t="s">
         <v>611</v>
       </c>
@@ -21553,7 +21649,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>891</v>
       </c>
@@ -21594,7 +21690,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="388" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>892</v>
       </c>
@@ -21635,7 +21731,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C389" s="52" t="s">
         <v>142</v>
       </c>
@@ -21667,7 +21763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>897</v>
       </c>
@@ -21705,7 +21801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>898</v>
       </c>
@@ -21746,7 +21842,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>900</v>
       </c>
@@ -21784,7 +21880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>904</v>
       </c>
@@ -21822,7 +21918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="24" t="s">
         <v>905</v>
       </c>
@@ -21864,7 +21960,7 @@
       <c r="Q394" s="25"/>
       <c r="R394" s="25"/>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C395" s="52" t="s">
         <v>611</v>
       </c>
@@ -21902,7 +21998,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>912</v>
       </c>
@@ -21943,7 +22039,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="397" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>913</v>
       </c>
@@ -21987,7 +22083,7 @@
         <v>19169</v>
       </c>
     </row>
-    <row r="398" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>914</v>
       </c>
@@ -22025,7 +22121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>916</v>
       </c>
@@ -22063,7 +22159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>918</v>
       </c>
@@ -22101,7 +22197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>920</v>
       </c>
@@ -22139,7 +22235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>922</v>
       </c>
@@ -22177,7 +22273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="24" t="s">
         <v>923</v>
       </c>
@@ -22219,7 +22315,7 @@
       <c r="Q403" s="25"/>
       <c r="R403" s="25"/>
     </row>
-    <row r="404" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C404" s="52" t="s">
         <v>611</v>
       </c>
@@ -22257,7 +22353,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="405" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>929</v>
       </c>
@@ -22298,7 +22394,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="406" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>930</v>
       </c>
@@ -22342,7 +22438,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="407" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>931</v>
       </c>
@@ -22380,7 +22476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>934</v>
       </c>
@@ -22418,7 +22514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>936</v>
       </c>
@@ -22456,7 +22552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>938</v>
       </c>
@@ -22494,7 +22590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>940</v>
       </c>
@@ -22532,7 +22628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="24" t="s">
         <v>942</v>
       </c>
@@ -22574,7 +22670,7 @@
       <c r="Q412" s="25"/>
       <c r="R412" s="25"/>
     </row>
-    <row r="413" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C413" s="52" t="s">
         <v>611</v>
       </c>
@@ -22615,7 +22711,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="414" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>949</v>
       </c>
@@ -22659,7 +22755,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="415" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>953</v>
       </c>
@@ -22703,7 +22799,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="416" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>954</v>
       </c>
@@ -22741,7 +22837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>955</v>
       </c>
@@ -22779,7 +22875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>957</v>
       </c>
@@ -22817,7 +22913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>967</v>
       </c>
@@ -22855,7 +22951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>968</v>
       </c>
@@ -22893,7 +22989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="24" t="s">
         <v>969</v>
       </c>
@@ -22935,7 +23031,7 @@
       <c r="Q421" s="25"/>
       <c r="R421" s="25"/>
     </row>
-    <row r="422" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:20" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C422" s="52" t="s">
         <v>611</v>
       </c>
@@ -22980,7 +23076,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="423" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>974</v>
       </c>
@@ -23021,7 +23117,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="424" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>976</v>
       </c>
@@ -23065,7 +23161,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="425" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>977</v>
       </c>
@@ -23103,7 +23199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>980</v>
       </c>
@@ -23141,7 +23237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>982</v>
       </c>
@@ -23179,7 +23275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>984</v>
       </c>
@@ -23217,7 +23313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>985</v>
       </c>
@@ -23255,7 +23351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="24" t="s">
         <v>988</v>
       </c>
@@ -23297,7 +23393,7 @@
       <c r="Q430" s="25"/>
       <c r="R430" s="25"/>
     </row>
-    <row r="431" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C431" s="52" t="s">
         <v>611</v>
       </c>
@@ -23338,7 +23434,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="432" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>995</v>
       </c>
@@ -23382,7 +23478,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="433" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>996</v>
       </c>
@@ -23420,7 +23516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>997</v>
       </c>
@@ -23458,7 +23554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>1001</v>
       </c>
@@ -23496,7 +23592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>1002</v>
       </c>
@@ -23534,7 +23630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>1003</v>
       </c>
@@ -23572,7 +23668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="24" t="s">
         <v>1007</v>
       </c>
@@ -23614,7 +23710,7 @@
       <c r="Q438" s="25"/>
       <c r="R438" s="25"/>
     </row>
-    <row r="439" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C439" s="52" t="s">
         <v>611</v>
       </c>
@@ -23652,7 +23748,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="440" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>1013</v>
       </c>
@@ -23696,7 +23792,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="441" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>1015</v>
       </c>
@@ -23734,7 +23830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>1017</v>
       </c>
@@ -23772,7 +23868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>1018</v>
       </c>
@@ -23810,7 +23906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>1021</v>
       </c>
@@ -23848,7 +23944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>1022</v>
       </c>
@@ -23886,7 +23982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="24" t="s">
         <v>1025</v>
       </c>
@@ -23928,7 +24024,7 @@
       <c r="Q446" s="25"/>
       <c r="R446" s="25"/>
     </row>
-    <row r="447" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C447" s="52" t="s">
         <v>611</v>
       </c>
@@ -23966,7 +24062,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="448" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>1031</v>
       </c>
@@ -24010,7 +24106,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="449" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>1033</v>
       </c>
@@ -24048,7 +24144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>1035</v>
       </c>
@@ -24086,7 +24182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>1036</v>
       </c>
@@ -24124,7 +24220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>1037</v>
       </c>
@@ -24162,7 +24258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>1038</v>
       </c>
@@ -24200,7 +24296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B454" s="24" t="s">
         <v>1043</v>
       </c>
@@ -24242,7 +24338,7 @@
       <c r="Q454" s="25"/>
       <c r="R454" s="25"/>
     </row>
-    <row r="455" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>1049</v>
       </c>
@@ -24286,7 +24382,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="456" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>1048</v>
       </c>
@@ -24327,7 +24423,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="457" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>1050</v>
       </c>
@@ -24365,7 +24461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>1054</v>
       </c>
@@ -24403,7 +24499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>1055</v>
       </c>
@@ -24441,7 +24537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>1058</v>
       </c>
@@ -24479,7 +24575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B461" s="24" t="s">
         <v>1060</v>
       </c>
@@ -24521,7 +24617,7 @@
       <c r="Q461" s="25"/>
       <c r="R461" s="25"/>
     </row>
-    <row r="462" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>1062</v>
       </c>
@@ -24559,7 +24655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>1066</v>
       </c>
@@ -24603,7 +24699,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="464" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>1067</v>
       </c>
@@ -24641,7 +24737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>1068</v>
       </c>
@@ -24679,7 +24775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>1072</v>
       </c>
@@ -24717,7 +24813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>1074</v>
       </c>
@@ -24755,7 +24851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B468" s="24" t="s">
         <v>1076</v>
       </c>
@@ -24797,7 +24893,7 @@
       <c r="Q468" s="25"/>
       <c r="R468" s="25"/>
     </row>
-    <row r="469" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B469" s="56" t="s">
         <v>1082</v>
       </c>
@@ -24838,7 +24934,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="470" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B470" s="56" t="s">
         <v>1083</v>
       </c>
@@ -24879,7 +24975,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="471" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B471" s="56" t="s">
         <v>1084</v>
       </c>
@@ -24917,7 +25013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B472" s="56" t="s">
         <v>1086</v>
       </c>
@@ -24955,7 +25051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B473" s="56" t="s">
         <v>1088</v>
       </c>
@@ -24993,7 +25089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B474" s="56" t="s">
         <v>1090</v>
       </c>
@@ -25031,7 +25127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B475" s="24" t="s">
         <v>1092</v>
       </c>
@@ -25073,7 +25169,7 @@
       <c r="Q475" s="25"/>
       <c r="R475" s="25"/>
     </row>
-    <row r="476" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>1097</v>
       </c>
@@ -25111,7 +25207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>1098</v>
       </c>
@@ -25152,7 +25248,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="478" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>1099</v>
       </c>
@@ -25190,7 +25286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>1100</v>
       </c>
@@ -25228,7 +25324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>1107</v>
       </c>
@@ -25266,7 +25362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>1108</v>
       </c>
@@ -25304,7 +25400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>1109</v>
       </c>
@@ -25346,7 +25442,7 @@
       <c r="Q482" s="25"/>
       <c r="R482" s="25"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>1110</v>
       </c>
@@ -25384,7 +25480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>1112</v>
       </c>
@@ -25425,7 +25521,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>1113</v>
       </c>
@@ -25463,7 +25559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>1116</v>
       </c>
@@ -25501,7 +25597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>1117</v>
       </c>
@@ -25539,7 +25635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>1118</v>
       </c>
@@ -25577,7 +25673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:20" s="48" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B489" s="48" t="s">
         <v>1123</v>
       </c>
@@ -25619,7 +25715,7 @@
       <c r="Q489" s="51"/>
       <c r="R489" s="51"/>
     </row>
-    <row r="490" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1385</v>
       </c>
@@ -25634,7 +25730,7 @@
       <c r="Q490" s="54"/>
       <c r="R490" s="54"/>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>1125</v>
       </c>
@@ -25675,7 +25771,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>1130</v>
       </c>
@@ -25716,7 +25812,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="493" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B493" s="24" t="s">
         <v>1131</v>
       </c>
@@ -25758,7 +25854,7 @@
       <c r="Q493" s="25"/>
       <c r="R493" s="25"/>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>1133</v>
       </c>
@@ -25799,7 +25895,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>1134</v>
       </c>
@@ -25840,7 +25936,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="496" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B496" s="24" t="s">
         <v>1142</v>
       </c>
@@ -25882,7 +25978,7 @@
       <c r="Q496" s="25"/>
       <c r="R496" s="25"/>
     </row>
-    <row r="497" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>1143</v>
       </c>
@@ -25923,7 +26019,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="498" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>1145</v>
       </c>
@@ -25961,7 +26057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B499" s="24" t="s">
         <v>1147</v>
       </c>
@@ -26003,7 +26099,7 @@
       <c r="Q499" s="25"/>
       <c r="R499" s="25"/>
     </row>
-    <row r="500" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>1151</v>
       </c>
@@ -26044,7 +26140,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="501" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>1152</v>
       </c>
@@ -26082,7 +26178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B502" s="24" t="s">
         <v>1154</v>
       </c>
@@ -26124,7 +26220,7 @@
       <c r="Q502" s="25"/>
       <c r="R502" s="25"/>
     </row>
-    <row r="503" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>1156</v>
       </c>
@@ -26165,7 +26261,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="504" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>1159</v>
       </c>
@@ -26203,7 +26299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B505" s="24" t="s">
         <v>1160</v>
       </c>
@@ -26245,7 +26341,7 @@
       <c r="Q505" s="25"/>
       <c r="R505" s="25"/>
     </row>
-    <row r="506" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>1164</v>
       </c>
@@ -26286,7 +26382,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="507" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>1165</v>
       </c>
@@ -26324,7 +26420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B508" s="24" t="s">
         <v>1169</v>
       </c>
@@ -26366,7 +26462,7 @@
       <c r="Q508" s="25"/>
       <c r="R508" s="25"/>
     </row>
-    <row r="509" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>1171</v>
       </c>
@@ -26407,7 +26503,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="510" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>1172</v>
       </c>
@@ -26445,7 +26541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B511" s="24" t="s">
         <v>1173</v>
       </c>
@@ -26487,7 +26583,7 @@
       <c r="Q511" s="25"/>
       <c r="R511" s="25"/>
     </row>
-    <row r="512" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>1182</v>
       </c>
@@ -26528,7 +26624,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="513" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>1183</v>
       </c>
@@ -26566,7 +26662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B514" s="24" t="s">
         <v>1185</v>
       </c>
@@ -26608,7 +26704,7 @@
       <c r="Q514" s="25"/>
       <c r="R514" s="25"/>
     </row>
-    <row r="515" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>1189</v>
       </c>
@@ -26649,7 +26745,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="516" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>1191</v>
       </c>
@@ -26690,7 +26786,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="517" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B517" s="24" t="s">
         <v>1192</v>
       </c>
@@ -26732,7 +26828,7 @@
       <c r="Q517" s="25"/>
       <c r="R517" s="25"/>
     </row>
-    <row r="518" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>1195</v>
       </c>
@@ -26770,7 +26866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>1198</v>
       </c>
@@ -26814,7 +26910,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="520" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B520" s="24" t="s">
         <v>1199</v>
       </c>
@@ -26859,7 +26955,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="521" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>1208</v>
       </c>
@@ -26897,7 +26993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>1209</v>
       </c>
@@ -26941,7 +27037,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="523" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B523" s="24" t="s">
         <v>1210</v>
       </c>
@@ -26983,7 +27079,7 @@
       <c r="Q523" s="25"/>
       <c r="R523" s="25"/>
     </row>
-    <row r="524" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>1213</v>
       </c>
@@ -27021,7 +27117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>1215</v>
       </c>
@@ -27062,7 +27158,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="526" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B526" s="24" t="s">
         <v>1216</v>
       </c>
@@ -27104,7 +27200,7 @@
       <c r="Q526" s="25"/>
       <c r="R526" s="25"/>
     </row>
-    <row r="527" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B527" t="s">
         <v>1221</v>
       </c>
@@ -27148,7 +27244,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="528" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>1223</v>
       </c>
@@ -27186,7 +27282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B529" s="24" t="s">
         <v>1224</v>
       </c>
@@ -27228,7 +27324,7 @@
       <c r="Q529" s="25"/>
       <c r="R529" s="25"/>
     </row>
-    <row r="530" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
         <v>1229</v>
       </c>
@@ -27272,7 +27368,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="531" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>1232</v>
       </c>
@@ -27310,7 +27406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="2:20" s="48" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:20" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B532" s="48" t="s">
         <v>1234</v>
       </c>
@@ -27352,7 +27448,7 @@
       <c r="Q532" s="51"/>
       <c r="R532" s="51"/>
     </row>
-    <row r="533" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>1237</v>
       </c>
@@ -27393,7 +27489,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="534" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>1238</v>
       </c>
@@ -27437,7 +27533,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="535" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B535" s="24" t="s">
         <v>1239</v>
       </c>
@@ -27479,7 +27575,7 @@
       <c r="Q535" s="25"/>
       <c r="R535" s="25"/>
     </row>
-    <row r="536" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>1244</v>
       </c>
@@ -27517,7 +27613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>1247</v>
       </c>
@@ -27561,7 +27657,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="538" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>1248</v>
       </c>
@@ -27602,7 +27698,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="539" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>1251</v>
       </c>
@@ -27619,7 +27715,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="540" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>1254</v>
       </c>
@@ -27639,7 +27735,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="541" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>1255</v>
       </c>
@@ -27656,7 +27752,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="542" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>1259</v>
       </c>
@@ -27673,7 +27769,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="543" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>1260</v>
       </c>
@@ -27693,7 +27789,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="544" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>1261</v>
       </c>
@@ -27710,7 +27806,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="545" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>1268</v>
       </c>
@@ -27727,7 +27823,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="546" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
         <v>1269</v>
       </c>
@@ -27747,7 +27843,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="547" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>1270</v>
       </c>
@@ -27764,7 +27860,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="548" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>1275</v>
       </c>
@@ -27781,7 +27877,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="549" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>1276</v>
       </c>
@@ -27801,7 +27897,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="550" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>1277</v>
       </c>
@@ -27818,7 +27914,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="551" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>1282</v>
       </c>
@@ -27835,7 +27931,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="552" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B552" t="s">
         <v>1285</v>
       </c>
@@ -27855,7 +27951,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="553" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>1287</v>
       </c>
@@ -27872,7 +27968,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="554" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>1289</v>
       </c>
@@ -27889,7 +27985,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="555" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
         <v>1290</v>
       </c>
@@ -27909,7 +28005,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="556" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
         <v>1291</v>
       </c>
@@ -27926,7 +28022,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="557" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
         <v>1297</v>
       </c>
@@ -27943,7 +28039,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="558" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>1298</v>
       </c>
@@ -27963,7 +28059,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="559" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B559" s="24" t="s">
         <v>1299</v>
       </c>
@@ -27986,7 +28082,7 @@
       <c r="Q559" s="25"/>
       <c r="R559" s="25"/>
     </row>
-    <row r="560" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
         <v>1305</v>
       </c>
@@ -28006,7 +28102,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="561" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>1306</v>
       </c>
@@ -28026,7 +28122,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="562" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B562" s="24" t="s">
         <v>1308</v>
       </c>
@@ -28049,7 +28145,7 @@
       <c r="Q562" s="25"/>
       <c r="R562" s="25"/>
     </row>
-    <row r="563" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>1310</v>
       </c>
@@ -28066,7 +28162,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="564" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>1312</v>
       </c>
@@ -28086,7 +28182,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="565" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B565" s="24" t="s">
         <v>1314</v>
       </c>
@@ -28109,7 +28205,7 @@
       <c r="Q565" s="25"/>
       <c r="R565" s="25"/>
     </row>
-    <row r="566" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>1318</v>
       </c>
@@ -28126,7 +28222,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="567" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>1319</v>
       </c>
@@ -28146,7 +28242,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="568" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B568" s="24" t="s">
         <v>1320</v>
       </c>
@@ -28169,7 +28265,7 @@
       <c r="Q568" s="25"/>
       <c r="R568" s="25"/>
     </row>
-    <row r="569" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B569" t="s">
         <v>1325</v>
       </c>
@@ -28189,7 +28285,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="570" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B570" t="s">
         <v>1326</v>
       </c>
@@ -28206,7 +28302,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="571" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B571" s="24" t="s">
         <v>1327</v>
       </c>
@@ -28229,7 +28325,7 @@
       <c r="Q571" s="25"/>
       <c r="R571" s="25"/>
     </row>
-    <row r="572" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E572" s="62"/>
       <c r="F572" s="62"/>
       <c r="N572" s="63"/>
@@ -28240,7 +28336,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="573" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B573" t="s">
         <v>1338</v>
       </c>
@@ -28260,7 +28356,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="574" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B574" t="s">
         <v>1337</v>
       </c>
@@ -28283,7 +28379,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="575" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B575" s="24" t="s">
         <v>1339</v>
       </c>
@@ -28306,7 +28402,7 @@
       <c r="Q575" s="25"/>
       <c r="R575" s="25"/>
     </row>
-    <row r="576" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B576" t="s">
         <v>1343</v>
       </c>
@@ -28323,7 +28419,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="577" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B577" t="s">
         <v>1344</v>
       </c>
@@ -28343,7 +28439,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="578" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B578" s="24" t="s">
         <v>1345</v>
       </c>
@@ -28366,7 +28462,7 @@
       <c r="Q578" s="25"/>
       <c r="R578" s="25"/>
     </row>
-    <row r="579" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B579" t="s">
         <v>1348</v>
       </c>
@@ -28386,7 +28482,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="580" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B580" t="s">
         <v>1349</v>
       </c>
@@ -28403,7 +28499,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="581" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B581" s="24" t="s">
         <v>1350</v>
       </c>
@@ -28426,7 +28522,7 @@
       <c r="Q581" s="25"/>
       <c r="R581" s="25"/>
     </row>
-    <row r="582" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B582" t="s">
         <v>1351</v>
       </c>
@@ -28446,7 +28542,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="583" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B583" t="s">
         <v>1357</v>
       </c>
@@ -28463,7 +28559,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="584" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B584" s="24" t="s">
         <v>1358</v>
       </c>
@@ -28486,7 +28582,7 @@
       <c r="Q584" s="25"/>
       <c r="R584" s="25"/>
     </row>
-    <row r="585" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
         <v>1362</v>
       </c>
@@ -28506,7 +28602,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="586" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
         <v>1363</v>
       </c>
@@ -28526,7 +28622,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="587" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B587" s="24" t="s">
         <v>1364</v>
       </c>
@@ -28549,7 +28645,7 @@
       <c r="Q587" s="25"/>
       <c r="R587" s="25"/>
     </row>
-    <row r="588" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
         <v>1370</v>
       </c>
@@ -28566,7 +28662,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="589" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
         <v>1371</v>
       </c>
@@ -28586,7 +28682,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="590" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B590" s="24" t="s">
         <v>1372</v>
       </c>
@@ -28609,7 +28705,7 @@
       <c r="Q590" s="25"/>
       <c r="R590" s="25"/>
     </row>
-    <row r="591" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
         <v>1377</v>
       </c>
@@ -28626,7 +28722,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="592" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>1378</v>
       </c>
@@ -28649,7 +28745,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="593" spans="1:20" s="48" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:20" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B593" s="48" t="s">
         <v>1379</v>
       </c>
@@ -28672,12 +28768,12 @@
       <c r="Q593" s="51"/>
       <c r="R593" s="51"/>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B595" t="s">
         <v>1387</v>
       </c>
@@ -28721,7 +28817,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
         <v>1391</v>
       </c>
@@ -28762,7 +28858,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B597" t="s">
         <v>1394</v>
       </c>
@@ -28803,7 +28899,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B598" t="s">
         <v>1398</v>
       </c>
@@ -28841,7 +28937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B599" s="24" t="s">
         <v>1401</v>
       </c>
@@ -28883,7 +28979,7 @@
       <c r="Q599" s="25"/>
       <c r="R599" s="25"/>
     </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B600" t="s">
         <v>1404</v>
       </c>
@@ -28924,7 +29020,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B601" t="s">
         <v>1408</v>
       </c>
@@ -28965,7 +29061,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B602" t="s">
         <v>1412</v>
       </c>
@@ -29006,7 +29102,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B603" t="s">
         <v>1416</v>
       </c>
@@ -29044,7 +29140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B604" t="s">
         <v>1419</v>
       </c>
@@ -29082,7 +29178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B605" t="s">
         <v>1422</v>
       </c>
@@ -29120,7 +29216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B606" t="s">
         <v>1425</v>
       </c>
@@ -29158,7 +29254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B607" t="s">
         <v>1428</v>
       </c>
@@ -29196,7 +29292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B608" t="s">
         <v>1431</v>
       </c>
@@ -29234,7 +29330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B609" t="s">
         <v>1434</v>
       </c>
@@ -29245,7 +29341,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="610" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B610" s="24" t="s">
         <v>1437</v>
       </c>
@@ -29265,12 +29361,12 @@
         <v>0.84583333333333333</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B612" t="s">
         <v>1445</v>
       </c>
@@ -29293,7 +29389,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B613" t="s">
         <v>1446</v>
       </c>
@@ -29313,7 +29409,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B614" t="s">
         <v>1447</v>
       </c>
@@ -29333,7 +29429,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B615" t="s">
         <v>1457</v>
       </c>
@@ -29350,7 +29446,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="616" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B616" s="24" t="s">
         <v>1456</v>
       </c>
@@ -29373,7 +29469,7 @@
       <c r="Q616" s="25"/>
       <c r="R616" s="25"/>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B617" t="s">
         <v>1454</v>
       </c>
@@ -29396,7 +29492,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B618" t="s">
         <v>1459</v>
       </c>
@@ -29413,7 +29509,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B619" t="s">
         <v>1460</v>
       </c>
@@ -29433,7 +29529,7 @@
         <v>0.76944444444444449</v>
       </c>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B620" t="s">
         <v>1461</v>
       </c>
@@ -29450,7 +29546,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B621" t="s">
         <v>1464</v>
       </c>
@@ -29467,7 +29563,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B622" t="s">
         <v>1466</v>
       </c>
@@ -29484,7 +29580,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B623" t="s">
         <v>1468</v>
       </c>
@@ -29501,7 +29597,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B624" t="s">
         <v>1472</v>
       </c>
@@ -29518,7 +29614,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="625" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B625" t="s">
         <v>1470</v>
       </c>
@@ -29535,7 +29631,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="626" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B626" t="s">
         <v>1474</v>
       </c>
@@ -29552,7 +29648,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="627" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B627" t="s">
         <v>1476</v>
       </c>
@@ -29569,7 +29665,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="628" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B628" t="s">
         <v>1477</v>
       </c>
@@ -29589,7 +29685,7 @@
         <v>0.82013888888888886</v>
       </c>
     </row>
-    <row r="629" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B629" s="24" t="s">
         <v>1480</v>
       </c>
@@ -29612,7 +29708,7 @@
       <c r="Q629" s="25"/>
       <c r="R629" s="25"/>
     </row>
-    <row r="630" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B630" t="s">
         <v>1487</v>
       </c>
@@ -29632,7 +29728,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="631" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B631" t="s">
         <v>1489</v>
       </c>
@@ -29649,7 +29745,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="632" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B632" t="s">
         <v>1490</v>
       </c>
@@ -29663,7 +29759,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="633" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B633" t="s">
         <v>1492</v>
       </c>
@@ -29677,7 +29773,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="634" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B634" t="s">
         <v>1496</v>
       </c>
@@ -29691,7 +29787,7 @@
         <v>0.69791666666666663</v>
       </c>
     </row>
-    <row r="635" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B635" t="s">
         <v>1497</v>
       </c>
@@ -29705,7 +29801,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="636" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B636" t="s">
         <v>1499</v>
       </c>
@@ -29716,7 +29812,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="637" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B637" t="s">
         <v>1502</v>
       </c>
@@ -29727,7 +29823,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="638" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B638" s="24" t="s">
         <v>1503</v>
       </c>
@@ -29744,9 +29840,9 @@
       <c r="Q638" s="25"/>
       <c r="R638" s="25"/>
     </row>
-    <row r="639" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B639" t="s">
-        <v>1563</v>
+        <v>1507</v>
       </c>
       <c r="C639" s="52" t="s">
         <v>0</v>
@@ -29761,18 +29857,18 @@
         <v>2000</v>
       </c>
       <c r="S639" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="640" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B640" t="s">
         <v>1508</v>
-      </c>
-    </row>
-    <row r="640" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B640" t="s">
-        <v>1507</v>
       </c>
       <c r="C640" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D640" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G640" t="s">
         <v>471</v>
@@ -29781,32 +29877,32 @@
         <v>2000</v>
       </c>
       <c r="S640" s="68" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="641" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B641" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C641" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1514</v>
+      </c>
+      <c r="T641" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="642" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B642" s="24" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="641" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B641" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C641" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D641" t="s">
+      <c r="C642" s="38" t="s">
         <v>1513</v>
       </c>
-      <c r="T641" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="642" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B642" s="24" t="s">
+      <c r="D642" s="24" t="s">
         <v>1516</v>
-      </c>
-      <c r="C642" s="38" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D642" s="24" t="s">
-        <v>1515</v>
       </c>
       <c r="E642" s="26"/>
       <c r="F642" s="26"/>
@@ -29815,15 +29911,15 @@
       <c r="Q642" s="25"/>
       <c r="R642" s="25"/>
     </row>
-    <row r="643" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B643" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C643" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D643" t="s">
         <v>1519</v>
-      </c>
-      <c r="C643" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D643" t="s">
-        <v>1518</v>
       </c>
       <c r="G643" t="s">
         <v>169</v>
@@ -29832,40 +29928,40 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="644" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B644" s="56" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C644" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D644" t="s">
+        <v>1524</v>
+      </c>
+      <c r="S644" s="60" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="645" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B645" s="56" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C645" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="646" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B646" s="24" t="s">
         <v>1523</v>
       </c>
-      <c r="S644" s="60" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="645" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B645" s="56" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C645" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D645" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="646" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B646" s="24" t="s">
-        <v>1522</v>
-      </c>
       <c r="C646" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D646" s="24" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E646" s="26"/>
       <c r="F646" s="26"/>
@@ -29874,15 +29970,15 @@
       <c r="Q646" s="25"/>
       <c r="R646" s="25"/>
     </row>
-    <row r="647" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B647" s="56" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C647" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D647" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G647" t="s">
         <v>185</v>
@@ -29891,40 +29987,40 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="648" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B648" s="56" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C648" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D648" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="S648" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="649" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="649" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B649" s="56" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C649" s="67" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D649" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="650" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="650" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B650" s="24" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C650" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D650" s="24" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E650" s="26"/>
       <c r="F650" s="26"/>
@@ -29933,15 +30029,15 @@
       <c r="Q650" s="25"/>
       <c r="R650" s="25"/>
     </row>
-    <row r="651" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B651" s="56" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C651" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D651" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="G651" t="s">
         <v>199</v>
@@ -29950,40 +30046,40 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="652" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B652" s="56" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C652" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D652" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="S652" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="653" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="653" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B653" s="56" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C653" s="67" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D653" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="654" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="654" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B654" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C654" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D654" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E654" s="26"/>
       <c r="F654" s="26"/>
@@ -29992,15 +30088,15 @@
       <c r="Q654" s="25"/>
       <c r="R654" s="25"/>
     </row>
-    <row r="655" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B655" s="56" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C655" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D655" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G655" t="s">
         <v>966</v>
@@ -30009,40 +30105,40 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="656" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B656" s="56" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C656" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D656" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="S656" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="657" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B657" s="56" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C657" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="658" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B658" s="24" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="657" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B657" s="56" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C657" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D657" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="658" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B658" s="24" t="s">
-        <v>1548</v>
-      </c>
       <c r="C658" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D658" s="24" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E658" s="26"/>
       <c r="F658" s="26"/>
@@ -30051,15 +30147,15 @@
       <c r="Q658" s="25"/>
       <c r="R658" s="25"/>
     </row>
-    <row r="659" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B659" s="56" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C659" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D659" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="G659" t="s">
         <v>1168</v>
@@ -30068,43 +30164,49 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="660" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B660" s="56" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C660" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D660" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="S660" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="661" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B661" s="56" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C661" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="662" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B662" s="24" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="661" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B661" s="56" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C661" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D661" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="662" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B662" s="24" t="s">
-        <v>1557</v>
-      </c>
       <c r="C662" s="38" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D662" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="663" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+      <c r="D662" s="24" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E662" s="26"/>
+      <c r="F662" s="26"/>
+      <c r="N662" s="28"/>
+      <c r="O662" s="25"/>
+      <c r="Q662" s="25"/>
+      <c r="R662" s="25"/>
+    </row>
+    <row r="663" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B663" t="s">
         <v>1564</v>
       </c>
@@ -30121,46 +30223,46 @@
         <v>7700</v>
       </c>
       <c r="S663" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T663" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="664" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B664" t="s">
         <v>1566</v>
-      </c>
-      <c r="T663" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="664" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B664" t="s">
-        <v>1568</v>
       </c>
       <c r="C664" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D664" t="s">
+        <v>1567</v>
+      </c>
+      <c r="S664" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="665" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B665" t="s">
         <v>1569</v>
       </c>
-      <c r="S664" t="s">
+      <c r="C665" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="666" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B666" s="24" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="665" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B665" t="s">
+      <c r="C666" s="38" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D666" s="24" t="s">
         <v>1571</v>
-      </c>
-      <c r="C665" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D665" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="666" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B666" s="24" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C666" s="38" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D666" s="24" t="s">
-        <v>1574</v>
       </c>
       <c r="E666" s="26"/>
       <c r="F666" s="26"/>
@@ -30169,15 +30271,15 @@
       <c r="Q666" s="25"/>
       <c r="R666" s="25"/>
     </row>
-    <row r="667" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B667" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C667" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D667" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="G667" t="s">
         <v>286</v>
@@ -30186,40 +30288,40 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="668" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B668" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="C668" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D668" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H668">
         <v>7500</v>
       </c>
       <c r="S668" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="669" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B669" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="669" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B669" t="s">
-        <v>1580</v>
-      </c>
       <c r="C669" s="67" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D669" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="670" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="670" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B670" s="24" t="s">
         <v>1582</v>
       </c>
       <c r="C670" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D670" s="24" t="s">
         <v>1583</v>
@@ -30231,15 +30333,15 @@
       <c r="Q670" s="25"/>
       <c r="R670" s="25"/>
     </row>
-    <row r="671" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B671" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C671" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D671" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="G671" t="s">
         <v>300</v>
@@ -30248,43 +30350,43 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="672" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B672" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C672" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D672" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="H672">
         <v>8800</v>
       </c>
       <c r="S672" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="673" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B673" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="673" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B673" t="s">
+      <c r="C673" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="674" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B674" s="24" t="s">
         <v>1589</v>
       </c>
-      <c r="C673" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D673" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="674" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B674" s="24" t="s">
-        <v>1591</v>
-      </c>
       <c r="C674" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D674" s="24" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="E674" s="26"/>
       <c r="F674" s="26"/>
@@ -30293,15 +30395,15 @@
       <c r="Q674" s="25"/>
       <c r="R674" s="25"/>
     </row>
-    <row r="675" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B675" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C675" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D675" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="G675" t="s">
         <v>314</v>
@@ -30310,43 +30412,43 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="676" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B676" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C676" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D676" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H676">
         <v>7600</v>
       </c>
       <c r="S676" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="677" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="677" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B677" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C677" s="67" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D677" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="678" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="678" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B678" s="24" t="s">
         <v>1600</v>
       </c>
       <c r="C678" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E678" s="26"/>
       <c r="F678" s="26"/>
@@ -30355,15 +30457,15 @@
       <c r="Q678" s="25"/>
       <c r="R678" s="25"/>
     </row>
-    <row r="679" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B679" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C679" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D679" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="G679" t="s">
         <v>865</v>
@@ -30375,12 +30477,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="680" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B680" s="24" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C680" s="38" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D680" s="24" t="s">
         <v>1605</v>
@@ -30395,18 +30497,18 @@
       <c r="Q680" s="25"/>
       <c r="R680" s="25"/>
       <c r="S680" s="24" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="681" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="681" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B681" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="C681" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D681" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="G681" t="s">
         <v>95</v>
@@ -30415,21 +30517,21 @@
         <v>7700</v>
       </c>
       <c r="S681" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="T681" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="682" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="682" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B682" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C682" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D682" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="G682" t="s">
         <v>95</v>
@@ -30438,29 +30540,29 @@
         <v>7700</v>
       </c>
       <c r="S682" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="683" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B683" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="683" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B683" t="s">
-        <v>1614</v>
-      </c>
       <c r="C683" s="67" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D683" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H683" s="52">
         <v>7700</v>
       </c>
     </row>
-    <row r="684" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B684" s="24" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C684" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D684" s="24" t="s">
         <v>1617</v>
@@ -30472,15 +30574,15 @@
       <c r="Q684" s="25"/>
       <c r="R684" s="25"/>
     </row>
-    <row r="685" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B685" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C685" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D685" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="G685" t="s">
         <v>464</v>
@@ -30489,10 +30591,10 @@
         <v>7450</v>
       </c>
       <c r="T685" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="686" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="686" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B686" t="s">
         <v>1621</v>
       </c>
@@ -30500,29 +30602,29 @@
         <v>1</v>
       </c>
       <c r="D686" t="s">
+        <v>1625</v>
+      </c>
+      <c r="S686" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="687" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B687" t="s">
         <v>1622</v>
       </c>
-      <c r="S686" t="s">
+      <c r="C687" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="688" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B688" s="24" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="687" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B687" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C687" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D687" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="688" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B688" s="24" t="s">
-        <v>1626</v>
-      </c>
       <c r="C688" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D688" s="24" t="s">
         <v>1627</v>
@@ -30534,15 +30636,15 @@
       <c r="Q688" s="25"/>
       <c r="R688" s="25"/>
     </row>
-    <row r="689" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B689" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C689" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D689" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="G689" t="s">
         <v>466</v>
@@ -30551,10 +30653,10 @@
         <v>7000</v>
       </c>
       <c r="T689" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="690" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="690" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B690" t="s">
         <v>1631</v>
       </c>
@@ -30562,32 +30664,32 @@
         <v>1</v>
       </c>
       <c r="D690" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="H690">
         <v>7000</v>
       </c>
       <c r="S690" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="691" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B691" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C691" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="692" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B692" s="24" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="691" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B691" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C691" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D691" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="692" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B692" s="24" t="s">
-        <v>1636</v>
-      </c>
       <c r="C692" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D692" s="24" t="s">
         <v>1637</v>
@@ -30599,15 +30701,15 @@
       <c r="Q692" s="25"/>
       <c r="R692" s="25"/>
     </row>
-    <row r="693" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B693" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="C693" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D693" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="G693" t="s">
         <v>468</v>
@@ -30616,46 +30718,46 @@
         <v>7300</v>
       </c>
       <c r="T693" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="694" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="694" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B694" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C694" s="52" t="s">
         <v>1</v>
       </c>
       <c r="D694" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="H694">
         <v>7300</v>
       </c>
       <c r="S694" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T694" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="695" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B695" t="s">
         <v>1643</v>
       </c>
-      <c r="T694" t="s">
+      <c r="C695" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="696" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B696" s="24" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="695" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B695" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C695" s="67" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D695" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="696" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B696" s="24" t="s">
-        <v>1647</v>
-      </c>
       <c r="C696" s="38" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D696" s="24" t="s">
         <v>1648</v>
@@ -30667,15 +30769,15 @@
       <c r="Q696" s="25"/>
       <c r="R696" s="25"/>
     </row>
-    <row r="697" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B697" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C697" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D697" t="s">
         <v>1649</v>
-      </c>
-      <c r="C697" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D697" t="s">
-        <v>1650</v>
       </c>
       <c r="H697">
         <v>7800</v>
@@ -30687,9 +30789,9 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="698" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B698" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C698" s="52" t="s">
         <v>1</v>
@@ -30701,40 +30803,40 @@
         <v>7800</v>
       </c>
       <c r="S698" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="699" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="699" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B699" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C699" s="54" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C699" s="12" t="s">
         <v>175</v>
       </c>
       <c r="D699" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="700" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="700" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B700" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C700" s="54" t="s">
-        <v>1659</v>
+        <v>1662</v>
+      </c>
+      <c r="C700" s="12" t="s">
+        <v>1660</v>
       </c>
       <c r="D700" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="701" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="701" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B701" s="24" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C701" s="25" t="s">
         <v>175</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="E701" s="26"/>
       <c r="F701" s="26"/>
@@ -30743,15 +30845,15 @@
       <c r="Q701" s="25"/>
       <c r="R701" s="25"/>
     </row>
-    <row r="702" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B702" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C702" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D702" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="S702" s="65">
         <v>0.83194444444444449</v>
@@ -30760,15 +30862,15 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="703" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B703" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C703" s="54" t="s">
-        <v>1667</v>
+        <v>1668</v>
+      </c>
+      <c r="C703" s="12" t="s">
+        <v>1656</v>
       </c>
       <c r="D703" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="S703" s="65">
         <v>0.83888888888888891</v>
@@ -30777,15 +30879,15 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="704" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B704" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C704" s="54" t="s">
-        <v>1667</v>
+        <v>1670</v>
+      </c>
+      <c r="C704" s="12" t="s">
+        <v>1656</v>
       </c>
       <c r="D704" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="S704" s="65">
         <v>0.85624999999999996</v>
@@ -30794,12 +30896,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="705" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B705" t="s">
         <v>1671</v>
       </c>
-      <c r="C705" s="54" t="s">
-        <v>1672</v>
+      <c r="C705" s="12" t="s">
+        <v>1657</v>
       </c>
       <c r="D705" t="s">
         <v>1673</v>
@@ -30811,21 +30913,196 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="706" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B706" t="s">
+    <row r="706" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B706" s="24" t="s">
         <v>1674</v>
       </c>
-      <c r="C706" s="54" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D706" t="s">
+      <c r="C706" s="25" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D706" s="24" t="s">
         <v>1675</v>
       </c>
-      <c r="S706" s="65">
+      <c r="E706" s="26"/>
+      <c r="F706" s="26"/>
+      <c r="N706" s="28"/>
+      <c r="O706" s="25"/>
+      <c r="Q706" s="25"/>
+      <c r="R706" s="25"/>
+      <c r="S706" s="66">
         <v>0.88611111111111107</v>
       </c>
-      <c r="T706">
+      <c r="T706" s="24">
         <v>-7</v>
+      </c>
+    </row>
+    <row r="707" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B707" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C707" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H707">
+        <v>6900</v>
+      </c>
+      <c r="S707" t="s">
+        <v>1677</v>
+      </c>
+      <c r="T707" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="708" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B708" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C708" s="52" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H708">
+        <v>6900</v>
+      </c>
+      <c r="S708" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="709" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B709" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C709" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="710" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B710" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C710" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="711" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B711" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C711" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="712" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B712" s="24" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C712" s="38" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D712" s="24" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E712" s="26"/>
+      <c r="F712" s="26"/>
+      <c r="N712" s="28"/>
+      <c r="O712" s="25"/>
+      <c r="Q712" s="25"/>
+      <c r="R712" s="25"/>
+    </row>
+    <row r="713" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B713" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C713" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1697</v>
+      </c>
+      <c r="T713" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="714" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B714" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C714" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1700</v>
+      </c>
+      <c r="S714" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="T714">
+        <v>-18.7</v>
+      </c>
+    </row>
+    <row r="715" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B715" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1702</v>
+      </c>
+      <c r="S715" s="65">
+        <v>0.7680555555555556</v>
+      </c>
+      <c r="T715">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="716" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B716" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C716" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1703</v>
+      </c>
+      <c r="S716" s="65">
+        <v>0.78125</v>
+      </c>
+      <c r="T716">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="717" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B717" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C717" s="38" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1698</v>
+      </c>
+      <c r="S717" s="65">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="T717">
+        <v>-21</v>
       </c>
     </row>
   </sheetData>
